--- a/_data/schedule.xlsx
+++ b/_data/schedule.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janwillem/Cloud/Git/probprog-conference/probprog-conference.github.io/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B105684-A3D6-5140-ADEE-5FD06CF27556}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA8959F-E1BC-BF40-BA5B-C8DC9665A60F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="460" windowWidth="50000" windowHeight="28180" activeTab="2"/>
+    <workbookView xWindow="900" yWindow="540" windowWidth="32620" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="oct4" sheetId="1" r:id="rId1"/>
     <sheet name="oct5" sheetId="2" r:id="rId2"/>
     <sheet name="oct6" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="99">
   <si>
     <t>Activity</t>
   </si>
@@ -36,301 +36,298 @@
     <t>Registration</t>
   </si>
   <si>
+    <t>Opening Remarks</t>
+  </si>
+  <si>
+    <t>Morning Sessions</t>
+  </si>
+  <si>
+    <t>Lunch Break</t>
+  </si>
+  <si>
+    <t>Afternoon Session</t>
+  </si>
+  <si>
+    <t>Invited or Contributed Talk</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity </t>
+  </si>
+  <si>
+    <t>8:00am</t>
+  </si>
+  <si>
+    <t>9:00am</t>
+  </si>
+  <si>
+    <t>9:40am</t>
+  </si>
+  <si>
+    <t>10:00am</t>
+  </si>
+  <si>
+    <t>10:20am</t>
+  </si>
+  <si>
+    <t>10:40am</t>
+  </si>
+  <si>
+    <t>11:00am</t>
+  </si>
+  <si>
+    <t>11:20am</t>
+  </si>
+  <si>
+    <t>11:35am</t>
+  </si>
+  <si>
+    <t>11:50am</t>
+  </si>
+  <si>
+    <t>12:05pm</t>
+  </si>
+  <si>
+    <t>1:00pm</t>
+  </si>
+  <si>
+    <t>1:40pm</t>
+  </si>
+  <si>
+    <t>2:00pm</t>
+  </si>
+  <si>
+    <t>2:20pm</t>
+  </si>
+  <si>
+    <t>2:40pm</t>
+  </si>
+  <si>
+    <t>3:00pm</t>
+  </si>
+  <si>
+    <t>3:15pm</t>
+  </si>
+  <si>
+    <t>3:30pm</t>
+  </si>
+  <si>
+    <t>3:45pm</t>
+  </si>
+  <si>
+    <t>4:00pm</t>
+  </si>
+  <si>
+    <t>11:15am</t>
+  </si>
+  <si>
+    <t>11:30am</t>
+  </si>
+  <si>
+    <t>11:45am</t>
+  </si>
+  <si>
+    <t>12:00pm</t>
+  </si>
+  <si>
+    <t>3:50pm</t>
+  </si>
+  <si>
+    <t>4:10pm</t>
+  </si>
+  <si>
+    <t>4:30pm</t>
+  </si>
+  <si>
+    <t>5:00pm</t>
+  </si>
+  <si>
+    <t>5:15pm</t>
+  </si>
+  <si>
+    <t>5:30pm</t>
+  </si>
+  <si>
+    <t>5:45pm</t>
+  </si>
+  <si>
+    <t>6:00pm</t>
+  </si>
+  <si>
+    <t>9:30am</t>
+  </si>
+  <si>
+    <t>1:30pm</t>
+  </si>
+  <si>
+    <t>**Coffee Break**</t>
+  </si>
+  <si>
+    <t>**Registration**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Registration** </t>
+  </si>
+  <si>
+    <t>Keynote: Stuart Russell</t>
+  </si>
+  <si>
+    <t>Talk: Josh Tenenbaum</t>
+  </si>
+  <si>
+    <t>Talk: Kristian Kersting</t>
+  </si>
+  <si>
+    <t>Talk: Frank Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Coffee Break** </t>
+  </si>
+  <si>
+    <t>Talk: Noah Goodman</t>
+  </si>
+  <si>
+    <t>Talk: Marco Cusumano-Towner</t>
+  </si>
+  <si>
+    <t>Talk: Kevin Ellis</t>
+  </si>
+  <si>
+    <t>Talk: Tim O'Donnell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Lunch Break** </t>
+  </si>
+  <si>
+    <t>**Session: Languages and Systems**</t>
+  </si>
+  <si>
+    <t>Keynote: Jean-Baptiste Tristan</t>
+  </si>
+  <si>
+    <t>Talk: Angelika Kimmig</t>
+  </si>
+  <si>
+    <t>Talk: Hongseok Yang</t>
+  </si>
+  <si>
+    <t>Talk: Adam Scibior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk: Sarah Chasins </t>
+  </si>
+  <si>
+    <t>Talk: Eric Atkinson</t>
+  </si>
+  <si>
+    <t>Talk: Timon Gehr</t>
+  </si>
+  <si>
+    <t>Keynote: Zoubin Ghahramani</t>
+  </si>
+  <si>
+    <t>Talk: Stan Development Team</t>
+  </si>
+  <si>
+    <t>Talk: Dustin Tran</t>
+  </si>
+  <si>
+    <t>Talk: Michael Tingley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coffee Break: </t>
+  </si>
+  <si>
+    <t>Talk: Daniel Ritchie</t>
+  </si>
+  <si>
+    <t>Talk: Ulrich Schaechtle</t>
+  </si>
+  <si>
+    <t>Talk: Brooks Paige</t>
+  </si>
+  <si>
+    <t>Keynote: Dave Blei</t>
+  </si>
+  <si>
+    <t>Talk: Lawrence Murray</t>
+  </si>
+  <si>
+    <t>Talk: Dan Roy</t>
+  </si>
+  <si>
+    <t>Talk: Feras Saad</t>
+  </si>
+  <si>
+    <t>Talk: Maria Gorinova</t>
+  </si>
+  <si>
+    <t>Talk: Hong Ge &amp; Kai Xu</t>
+  </si>
+  <si>
+    <t>**Session: Practice of Probabilistic Programming**</t>
+  </si>
+  <si>
+    <t>**Lunch Break &amp; Poster Session**</t>
+  </si>
+  <si>
+    <t>**Session: Statistics and Data Analysis**</t>
+  </si>
+  <si>
+    <t>**Session: Intelligence**</t>
+  </si>
+  <si>
+    <t>**Bartos Theater**</t>
+  </si>
+  <si>
+    <t>**Lower Atrium**</t>
+  </si>
+  <si>
+    <t>**9:00am**</t>
+  </si>
+  <si>
+    <t>**12:05pm**</t>
+  </si>
+  <si>
+    <t>**8:00am**</t>
+  </si>
+  <si>
+    <t>**1:00pm**</t>
+  </si>
+  <si>
+    <t>**4:00pm**</t>
+  </si>
+  <si>
+    <t>**2:40pm**</t>
+  </si>
+  <si>
+    <t>**3:00pm**</t>
+  </si>
+  <si>
+    <t>**12:00pm**</t>
+  </si>
+  <si>
+    <t>**4:30pm**</t>
+  </si>
+  <si>
+    <t>**5:00pm**</t>
+  </si>
+  <si>
+    <t>**6:00pm**</t>
+  </si>
+  <si>
     <t>McGovern Seminar Room</t>
-  </si>
-  <si>
-    <t>Opening Remarks</t>
-  </si>
-  <si>
-    <t>Morning Sessions</t>
-  </si>
-  <si>
-    <t>Lunch Break</t>
-  </si>
-  <si>
-    <t>Afternoon Session</t>
-  </si>
-  <si>
-    <t>Invited or Contributed Talk</t>
-  </si>
-  <si>
-    <t>Start Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity </t>
-  </si>
-  <si>
-    <t>8:00am</t>
-  </si>
-  <si>
-    <t>9:00am</t>
-  </si>
-  <si>
-    <t>9:40am</t>
-  </si>
-  <si>
-    <t>10:00am</t>
-  </si>
-  <si>
-    <t>10:20am</t>
-  </si>
-  <si>
-    <t>10:40am</t>
-  </si>
-  <si>
-    <t>11:00am</t>
-  </si>
-  <si>
-    <t>11:20am</t>
-  </si>
-  <si>
-    <t>11:35am</t>
-  </si>
-  <si>
-    <t>11:50am</t>
-  </si>
-  <si>
-    <t>12:05pm</t>
-  </si>
-  <si>
-    <t>1:00pm</t>
-  </si>
-  <si>
-    <t>1:40pm</t>
-  </si>
-  <si>
-    <t>2:00pm</t>
-  </si>
-  <si>
-    <t>2:20pm</t>
-  </si>
-  <si>
-    <t>2:40pm</t>
-  </si>
-  <si>
-    <t>3:00pm</t>
-  </si>
-  <si>
-    <t>3:15pm</t>
-  </si>
-  <si>
-    <t>3:30pm</t>
-  </si>
-  <si>
-    <t>3:45pm</t>
-  </si>
-  <si>
-    <t>4:00pm</t>
-  </si>
-  <si>
-    <t>11:15am</t>
-  </si>
-  <si>
-    <t>11:30am</t>
-  </si>
-  <si>
-    <t>11:45am</t>
-  </si>
-  <si>
-    <t>12:00pm</t>
-  </si>
-  <si>
-    <t>3:50pm</t>
-  </si>
-  <si>
-    <t>4:10pm</t>
-  </si>
-  <si>
-    <t>4:30pm</t>
-  </si>
-  <si>
-    <t>5:00pm</t>
-  </si>
-  <si>
-    <t>5:15pm</t>
-  </si>
-  <si>
-    <t>5:30pm</t>
-  </si>
-  <si>
-    <t>5:45pm</t>
-  </si>
-  <si>
-    <t>6:00pm</t>
-  </si>
-  <si>
-    <t>9:30am</t>
-  </si>
-  <si>
-    <t>1:30pm</t>
-  </si>
-  <si>
-    <t>**Coffee Break**</t>
-  </si>
-  <si>
-    <t>**Registration**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Registration** </t>
-  </si>
-  <si>
-    <t>Keynote: Stuart Russell</t>
-  </si>
-  <si>
-    <t>Talk: Josh Tenenbaum</t>
-  </si>
-  <si>
-    <t>Talk: Kristian Kersting</t>
-  </si>
-  <si>
-    <t>Talk: Frank Wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Coffee Break** </t>
-  </si>
-  <si>
-    <t>Talk: Noah Goodman</t>
-  </si>
-  <si>
-    <t>Talk: Marco Cusumano-Towner</t>
-  </si>
-  <si>
-    <t>Talk: Kevin Ellis</t>
-  </si>
-  <si>
-    <t>Talk: Tim O'Donnell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Lunch Break** </t>
-  </si>
-  <si>
-    <t>**Session: Languages and Systems**</t>
-  </si>
-  <si>
-    <t>Keynote: Jean-Baptiste Tristan</t>
-  </si>
-  <si>
-    <t>Talk: Angelika Kimmig</t>
-  </si>
-  <si>
-    <t>Talk: Hongseok Yang</t>
-  </si>
-  <si>
-    <t>Talk: Adam Scibior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk: Sarah Chasins </t>
-  </si>
-  <si>
-    <t>Talk: Eric Atkinson</t>
-  </si>
-  <si>
-    <t>Talk: Timon Gehr</t>
-  </si>
-  <si>
-    <t>Keynote: Zoubin Ghahramani</t>
-  </si>
-  <si>
-    <t>Talk: Stan Development Team</t>
-  </si>
-  <si>
-    <t>Talk: Dustin Tran</t>
-  </si>
-  <si>
-    <t>Talk: Michael Tingley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coffee Break: </t>
-  </si>
-  <si>
-    <t>Talk: Daniel Ritchie</t>
-  </si>
-  <si>
-    <t>Talk: Ulrich Schaechtle</t>
-  </si>
-  <si>
-    <t>Talk: Brooks Paige</t>
-  </si>
-  <si>
-    <t>Keynote: Dave Blei</t>
-  </si>
-  <si>
-    <t>Talk: Lawrence Murray</t>
-  </si>
-  <si>
-    <t>Talk: Dan Roy</t>
-  </si>
-  <si>
-    <t>Talk: Feras Saad</t>
-  </si>
-  <si>
-    <t>Talk: Maria Gorinova</t>
-  </si>
-  <si>
-    <t>Talk: Hong Ge &amp; Kai Xu</t>
-  </si>
-  <si>
-    <t>**Session: Practice of Probabilistic Programming**</t>
-  </si>
-  <si>
-    <t>**Lunch Break &amp; Poster Session**</t>
-  </si>
-  <si>
-    <t>**Session: Statistics and Data Analysis**</t>
-  </si>
-  <si>
-    <t>**Session: Intelligence**</t>
-  </si>
-  <si>
-    <t>**Bartos Theater**</t>
-  </si>
-  <si>
-    <t>**Lower Atrium**</t>
-  </si>
-  <si>
-    <t>**9:00am**</t>
-  </si>
-  <si>
-    <t>**12:05pm**</t>
-  </si>
-  <si>
-    <t>**8:00am**</t>
-  </si>
-  <si>
-    <t>**1:00pm**</t>
-  </si>
-  <si>
-    <t>**4:00pm**</t>
-  </si>
-  <si>
-    <t>**2:40pm**</t>
-  </si>
-  <si>
-    <t>**3:00pm**</t>
-  </si>
-  <si>
-    <t>**12:00pm**</t>
-  </si>
-  <si>
-    <t>**4:30pm**</t>
-  </si>
-  <si>
-    <t>**5:00pm**</t>
-  </si>
-  <si>
-    <t>**6:00pm**</t>
-  </si>
-  <si>
-    <t>**McGovern Seminar Room**</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="m/d/yy\ h:mm;@"/>
-    <numFmt numFmtId="168" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -819,9 +816,9 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1177,11 +1174,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1194,7 +1191,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1208,72 +1205,63 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1283,11 +1271,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1299,7 +1287,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1313,250 +1301,250 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
         <v>96</v>
       </c>
-      <c r="B19" t="s">
-        <v>97</v>
-      </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1565,11 +1553,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1583,13 +1571,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1597,253 +1585,253 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
         <v>85</v>
-      </c>
-      <c r="D3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/_data/schedule.xlsx
+++ b/_data/schedule.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janwillem/Cloud/Git/probprog-conference/probprog-conference.github.io/_data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA8959F-E1BC-BF40-BA5B-C8DC9665A60F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="540" windowWidth="32620" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="80" windowWidth="32440" windowHeight="20380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="oct4" sheetId="1" r:id="rId1"/>
     <sheet name="oct5" sheetId="2" r:id="rId2"/>
     <sheet name="oct6" sheetId="3" r:id="rId3"/>
+    <sheet name="times" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>Activity</t>
   </si>
@@ -63,114 +63,18 @@
     <t>9:00am</t>
   </si>
   <si>
-    <t>9:40am</t>
-  </si>
-  <si>
-    <t>10:00am</t>
-  </si>
-  <si>
-    <t>10:20am</t>
-  </si>
-  <si>
-    <t>10:40am</t>
-  </si>
-  <si>
     <t>11:00am</t>
   </si>
   <si>
-    <t>11:20am</t>
-  </si>
-  <si>
-    <t>11:35am</t>
-  </si>
-  <si>
-    <t>11:50am</t>
-  </si>
-  <si>
-    <t>12:05pm</t>
-  </si>
-  <si>
-    <t>1:00pm</t>
-  </si>
-  <si>
-    <t>1:40pm</t>
-  </si>
-  <si>
-    <t>2:00pm</t>
-  </si>
-  <si>
-    <t>2:20pm</t>
-  </si>
-  <si>
-    <t>2:40pm</t>
-  </si>
-  <si>
-    <t>3:00pm</t>
-  </si>
-  <si>
-    <t>3:15pm</t>
-  </si>
-  <si>
-    <t>3:30pm</t>
-  </si>
-  <si>
-    <t>3:45pm</t>
-  </si>
-  <si>
-    <t>4:00pm</t>
-  </si>
-  <si>
-    <t>11:15am</t>
-  </si>
-  <si>
-    <t>11:30am</t>
-  </si>
-  <si>
-    <t>11:45am</t>
-  </si>
-  <si>
     <t>12:00pm</t>
   </si>
   <si>
-    <t>3:50pm</t>
-  </si>
-  <si>
-    <t>4:10pm</t>
-  </si>
-  <si>
-    <t>4:30pm</t>
-  </si>
-  <si>
-    <t>5:00pm</t>
-  </si>
-  <si>
-    <t>5:15pm</t>
-  </si>
-  <si>
-    <t>5:30pm</t>
-  </si>
-  <si>
-    <t>5:45pm</t>
-  </si>
-  <si>
-    <t>6:00pm</t>
-  </si>
-  <si>
     <t>9:30am</t>
   </si>
   <si>
     <t>1:30pm</t>
   </si>
   <si>
-    <t>**Coffee Break**</t>
-  </si>
-  <si>
-    <t>**Registration**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Registration** </t>
-  </si>
-  <si>
     <t>Keynote: Stuart Russell</t>
   </si>
   <si>
@@ -183,9 +87,6 @@
     <t>Talk: Frank Wood</t>
   </si>
   <si>
-    <t xml:space="preserve">**Coffee Break** </t>
-  </si>
-  <si>
     <t>Talk: Noah Goodman</t>
   </si>
   <si>
@@ -198,9 +99,6 @@
     <t>Talk: Tim O'Donnell</t>
   </si>
   <si>
-    <t xml:space="preserve">**Lunch Break** </t>
-  </si>
-  <si>
     <t>**Session: Languages and Systems**</t>
   </si>
   <si>
@@ -237,9 +135,6 @@
     <t>Talk: Michael Tingley</t>
   </si>
   <si>
-    <t xml:space="preserve">Coffee Break: </t>
-  </si>
-  <si>
     <t>Talk: Daniel Ritchie</t>
   </si>
   <si>
@@ -270,9 +165,6 @@
     <t>**Session: Practice of Probabilistic Programming**</t>
   </si>
   <si>
-    <t>**Lunch Break &amp; Poster Session**</t>
-  </si>
-  <si>
     <t>**Session: Statistics and Data Analysis**</t>
   </si>
   <si>
@@ -282,54 +174,44 @@
     <t>**Bartos Theater**</t>
   </si>
   <si>
-    <t>**Lower Atrium**</t>
-  </si>
-  <si>
-    <t>**9:00am**</t>
-  </si>
-  <si>
-    <t>**12:05pm**</t>
-  </si>
-  <si>
-    <t>**8:00am**</t>
-  </si>
-  <si>
-    <t>**1:00pm**</t>
-  </si>
-  <si>
-    <t>**4:00pm**</t>
-  </si>
-  <si>
-    <t>**2:40pm**</t>
-  </si>
-  <si>
-    <t>**3:00pm**</t>
-  </si>
-  <si>
-    <t>**12:00pm**</t>
-  </si>
-  <si>
-    <t>**4:30pm**</t>
-  </si>
-  <si>
-    <t>**5:00pm**</t>
-  </si>
-  <si>
-    <t>**6:00pm**</t>
-  </si>
-  <si>
     <t>McGovern Seminar Room</t>
+  </si>
+  <si>
+    <t>keynote</t>
+  </si>
+  <si>
+    <t>talk</t>
+  </si>
+  <si>
+    <t>*Lunch and Poster Session*</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>*Coffee Break*</t>
+  </si>
+  <si>
+    <t>*Registration*</t>
+  </si>
+  <si>
+    <t>*Lower Atrium*</t>
+  </si>
+  <si>
+    <t>Invited or contributed Talk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
-    <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="170" formatCode="h:mm;@"/>
+    <numFmt numFmtId="173" formatCode="\*\*h:mm\*\*;@"/>
+    <numFmt numFmtId="174" formatCode="\*h:mm\*;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -471,6 +353,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -769,7 +667,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -812,16 +710,116 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="124">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -850,11 +848,93 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -921,7 +1001,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -973,7 +1053,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1167,21 +1247,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
@@ -1189,7 +1269,7 @@
     <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1203,7 +1283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1214,366 +1294,415 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>89</v>
-      </c>
+    <row r="2" spans="1:4">
+      <c r="A2" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B2" s="10"/>
       <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="10">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="B3" s="10">
+        <f>B11</f>
+        <v>0.48611111111111116</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8">
+        <f>A3</f>
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="B4" s="8">
+        <f>A4+times!$B$1</f>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8">
+        <f>B4</f>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="B5" s="8">
+        <f>A5+times!$B$2</f>
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8">
+        <f>B5</f>
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="B6" s="8">
+        <f>A6+times!$B$2</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8">
+        <f>B6</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B7" s="8">
+        <f>A7+times!$B$2</f>
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="11">
+        <f>B7</f>
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="B8" s="11">
+        <f>A8+times!$B$3</f>
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8">
+        <f>B8</f>
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="B9" s="8">
+        <f>A9+times!$B$2</f>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8">
+        <f>B9</f>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="B10" s="8">
+        <f>A10+times!$B$2</f>
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8">
+        <f>B10</f>
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="B11" s="8">
+        <f>A11+times!$B$2</f>
+        <v>0.48611111111111116</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8">
+        <f>B11</f>
+        <v>0.48611111111111116</v>
+      </c>
+      <c r="B12" s="8">
+        <f>A12+times!$B$2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="11">
+        <f>B12</f>
+        <v>0.5</v>
+      </c>
+      <c r="B13" s="11">
+        <f>A14</f>
+        <v>0.625</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="B14" s="10">
+        <f>B21</f>
+        <v>0.73611111111111083</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
+      <c r="D14" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="8">
+        <f>A14</f>
+        <v>0.625</v>
+      </c>
+      <c r="B15" s="8">
+        <f>A15+times!$B$1</f>
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="8">
+        <f>B15</f>
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="B16" s="8">
+        <f>A16+times!$B$2</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="8">
+        <f>B16</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B17" s="8">
+        <f>A17+times!$B$2</f>
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="11">
+        <f>B17</f>
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="B18" s="11">
+        <f>A18+times!$B$3</f>
+        <v>0.69444444444444431</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="8">
+        <f>B18</f>
+        <v>0.69444444444444431</v>
+      </c>
+      <c r="B19" s="8">
+        <f>A19+times!$B$2</f>
+        <v>0.70833333333333315</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="8">
+        <f>B19</f>
+        <v>0.70833333333333315</v>
+      </c>
+      <c r="B20" s="8">
+        <f>A20+times!$B$2</f>
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="8">
+        <f>B20</f>
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="B21" s="8">
+        <f>A21+times!$B$2</f>
+        <v>0.73611111111111083</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="D23" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1583,258 +1712,346 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>87</v>
-      </c>
+    <row r="2" spans="1:4">
+      <c r="A2" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B2" s="10"/>
       <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="10">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="B3" s="10">
+        <f>B11</f>
+        <v>0.48611111111111116</v>
+      </c>
+      <c r="C3" t="s">
         <v>48</v>
       </c>
-      <c r="D2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
       <c r="D3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8">
+        <f>A3</f>
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="B4" s="8">
+        <f>A4+times!$B$1</f>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8">
+        <f>B4</f>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="B5" s="8">
+        <f>A5+times!$B$2</f>
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8">
+        <f>B5</f>
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="B6" s="8">
+        <f>A6+times!$B$2</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8">
+        <f>B6</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B7" s="8">
+        <f>A7+times!$B$2</f>
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="11">
+        <f>B7</f>
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="B8" s="11">
+        <f>A8+times!$B$3</f>
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8">
+        <f>B8</f>
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="B9" s="8">
+        <f>A9+times!$B$2</f>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8">
+        <f>B9</f>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="B10" s="8">
+        <f>A10+times!$B$2</f>
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8">
+        <f>B10</f>
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="B11" s="8">
+        <f>A11+times!$B$2</f>
+        <v>0.48611111111111116</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8">
+        <f>B11</f>
+        <v>0.48611111111111116</v>
+      </c>
+      <c r="B12" s="8">
+        <f>A12+times!$B$2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="11">
+        <f>B12</f>
+        <v>0.5</v>
+      </c>
+      <c r="B13" s="11">
+        <f>A14</f>
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="10">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="B14" s="10">
+        <f>B22</f>
+        <v>0.73611111111111072</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="8">
+        <f>A14</f>
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="B15" s="8">
+        <f>A15+times!$B$1</f>
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="8">
+        <f>B15</f>
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="B16" s="8">
+        <f>A16+times!$B$2</f>
+        <v>0.65277777777777768</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="8">
+        <f>B16</f>
+        <v>0.65277777777777768</v>
+      </c>
+      <c r="B17" s="8">
+        <f>A17+times!$B$2</f>
+        <v>0.66666666666666652</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="8">
+        <f>B17</f>
+        <v>0.66666666666666652</v>
+      </c>
+      <c r="B18" s="8">
+        <f>A18+times!$B$2</f>
+        <v>0.68055555555555536</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="11">
+        <f>B18</f>
+        <v>0.68055555555555536</v>
+      </c>
+      <c r="B19" s="11">
+        <f>A19+times!$B$3</f>
+        <v>0.6944444444444442</v>
+      </c>
+      <c r="C19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>28</v>
+    <row r="20" spans="1:3">
+      <c r="A20" s="8">
+        <f>B19</f>
+        <v>0.6944444444444442</v>
+      </c>
+      <c r="B20" s="8">
+        <f>A20+times!$B$2</f>
+        <v>0.70833333333333304</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="8">
+        <f>B20</f>
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B21" s="8">
+        <f>A21+times!$B$2</f>
+        <v>0.72222222222222188</v>
+      </c>
       <c r="C21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="4" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="8">
+        <f>B21</f>
+        <v>0.72222222222222188</v>
+      </c>
+      <c r="B22" s="8">
+        <f>A22+times!$B$2</f>
+        <v>0.73611111111111072</v>
+      </c>
       <c r="C22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="4" t="s">
         <v>31</v>
       </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="8">
+        <f>B22</f>
+        <v>0.73611111111111072</v>
+      </c>
+      <c r="B23" s="8">
+        <f>A23+times!$B$2</f>
+        <v>0.74999999999999956</v>
+      </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="4">
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.3888888888888888E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1.3888888888888888E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/_data/schedule.xlsx
+++ b/_data/schedule.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="24030"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janwillem/Cloud/Git/probprog-conference/probprog-conference.github.io/_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{082A2C06-777F-8849-9ACF-177E05547EDB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="80" windowWidth="32440" windowHeight="20380" activeTab="1"/>
+    <workbookView xWindow="940" yWindow="540" windowWidth="32580" windowHeight="20380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="oct4" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="oct6" sheetId="3" r:id="rId3"/>
     <sheet name="times" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
     <t>Activity</t>
   </si>
@@ -48,9 +54,6 @@
     <t>Afternoon Session</t>
   </si>
   <si>
-    <t>Invited or Contributed Talk</t>
-  </si>
-  <si>
     <t>Start Time</t>
   </si>
   <si>
@@ -75,93 +78,9 @@
     <t>1:30pm</t>
   </si>
   <si>
-    <t>Keynote: Stuart Russell</t>
-  </si>
-  <si>
-    <t>Talk: Josh Tenenbaum</t>
-  </si>
-  <si>
-    <t>Talk: Kristian Kersting</t>
-  </si>
-  <si>
-    <t>Talk: Frank Wood</t>
-  </si>
-  <si>
-    <t>Talk: Noah Goodman</t>
-  </si>
-  <si>
-    <t>Talk: Marco Cusumano-Towner</t>
-  </si>
-  <si>
-    <t>Talk: Kevin Ellis</t>
-  </si>
-  <si>
-    <t>Talk: Tim O'Donnell</t>
-  </si>
-  <si>
     <t>**Session: Languages and Systems**</t>
   </si>
   <si>
-    <t>Keynote: Jean-Baptiste Tristan</t>
-  </si>
-  <si>
-    <t>Talk: Angelika Kimmig</t>
-  </si>
-  <si>
-    <t>Talk: Hongseok Yang</t>
-  </si>
-  <si>
-    <t>Talk: Adam Scibior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talk: Sarah Chasins </t>
-  </si>
-  <si>
-    <t>Talk: Eric Atkinson</t>
-  </si>
-  <si>
-    <t>Talk: Timon Gehr</t>
-  </si>
-  <si>
-    <t>Keynote: Zoubin Ghahramani</t>
-  </si>
-  <si>
-    <t>Talk: Stan Development Team</t>
-  </si>
-  <si>
-    <t>Talk: Dustin Tran</t>
-  </si>
-  <si>
-    <t>Talk: Michael Tingley</t>
-  </si>
-  <si>
-    <t>Talk: Daniel Ritchie</t>
-  </si>
-  <si>
-    <t>Talk: Ulrich Schaechtle</t>
-  </si>
-  <si>
-    <t>Talk: Brooks Paige</t>
-  </si>
-  <si>
-    <t>Keynote: Dave Blei</t>
-  </si>
-  <si>
-    <t>Talk: Lawrence Murray</t>
-  </si>
-  <si>
-    <t>Talk: Dan Roy</t>
-  </si>
-  <si>
-    <t>Talk: Feras Saad</t>
-  </si>
-  <si>
-    <t>Talk: Maria Gorinova</t>
-  </si>
-  <si>
-    <t>Talk: Hong Ge &amp; Kai Xu</t>
-  </si>
-  <si>
     <t>**Session: Practice of Probabilistic Programming**</t>
   </si>
   <si>
@@ -183,35 +102,168 @@
     <t>talk</t>
   </si>
   <si>
-    <t>*Lunch and Poster Session*</t>
-  </si>
-  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>*Coffee Break*</t>
-  </si>
-  <si>
-    <t>*Registration*</t>
-  </si>
-  <si>
-    <t>*Lower Atrium*</t>
-  </si>
-  <si>
     <t>Invited or contributed Talk</t>
+  </si>
+  <si>
+    <t>***8:00***</t>
+  </si>
+  <si>
+    <t>***Registration***</t>
+  </si>
+  <si>
+    <t>***Lower Atrium***</t>
+  </si>
+  <si>
+    <t>**8:40**</t>
+  </si>
+  <si>
+    <t>**12:00**</t>
+  </si>
+  <si>
+    <t>Keynote: Zoubin Ghahramani (*Uber AI Labs, University of Cambridge*)</t>
+  </si>
+  <si>
+    <t>Talk: Dustin Tran (*Google*)</t>
+  </si>
+  <si>
+    <t>Talk: Michael Tingley (*Facebook*)</t>
+  </si>
+  <si>
+    <t>***10:20***</t>
+  </si>
+  <si>
+    <t>***10:40***</t>
+  </si>
+  <si>
+    <t>***Coffee Break***</t>
+  </si>
+  <si>
+    <t>Talk: Daniel Ritchie (*Brown*)</t>
+  </si>
+  <si>
+    <t>Talk: Ulrich Schaechtle (*MIT*)</t>
+  </si>
+  <si>
+    <t>Talk: Brooks Paige (*Alan Turing Institute, University of Cambridge*)</t>
+  </si>
+  <si>
+    <t>***12:00***</t>
+  </si>
+  <si>
+    <t>***15:00***</t>
+  </si>
+  <si>
+    <t>***Lunch and Poster Session***</t>
+  </si>
+  <si>
+    <t>**15:00**</t>
+  </si>
+  <si>
+    <t>**18:00**</t>
+  </si>
+  <si>
+    <t>Keynote: Dave Blei (*Columbia University*)</t>
+  </si>
+  <si>
+    <t>Talk: Lawrence Murray (*Uppsala University*)</t>
+  </si>
+  <si>
+    <t>Talk: Dan Roy (*University of Toronto*)</t>
+  </si>
+  <si>
+    <t>***16:20***</t>
+  </si>
+  <si>
+    <t>***16:40***</t>
+  </si>
+  <si>
+    <t>Talk: Tom Rainforth (*University of Oxford*)</t>
+  </si>
+  <si>
+    <t>Talk: Maria Gorinova (*University of Edinburgh*)</t>
+  </si>
+  <si>
+    <t>Talk: Hong Ge &amp; Kai Xu (*University of Cambridge*)</t>
+  </si>
+  <si>
+    <t>Talk: Feras Saad (*MIT*)</t>
+  </si>
+  <si>
+    <t>Keynote: Stuart Russell (*UC Berkeley*)</t>
+  </si>
+  <si>
+    <t>Talk: Josh Tenenbaum (*MIT*)</t>
+  </si>
+  <si>
+    <t>Talk: Kristian Kersting (*TU Darmstadt*)</t>
+  </si>
+  <si>
+    <t>Talk: Frank Wood (*University of British Columbia*)</t>
+  </si>
+  <si>
+    <t>Talk: Noah Goodman (*Uber AI Labs, Stanford*)</t>
+  </si>
+  <si>
+    <t>Talk: Marco Cusumano-Towner (*MIT*)</t>
+  </si>
+  <si>
+    <t>Talk: Kevin Ellis (*MIT*)</t>
+  </si>
+  <si>
+    <t>Talk: Tim O'Donnell (*McGill*)</t>
+  </si>
+  <si>
+    <t>***14:40***</t>
+  </si>
+  <si>
+    <t>**14:40**</t>
+  </si>
+  <si>
+    <t>**17:40**</t>
+  </si>
+  <si>
+    <t>Keynote: Jean-Baptiste Tristan (*Oracle Labs*)</t>
+  </si>
+  <si>
+    <t>Talk: Angelika Kimmig (*University of Cardiff*)</t>
+  </si>
+  <si>
+    <t>Talk: Hongseok Yang (*KAIST*)</t>
+  </si>
+  <si>
+    <t>Talk: Adam Scibior (*University of Cambridge*)</t>
+  </si>
+  <si>
+    <t>Talk: Sarah Chasins (*UC Berkeley*)</t>
+  </si>
+  <si>
+    <t>Talk: Eric Atkinson (*MIT*)</t>
+  </si>
+  <si>
+    <t>Talk: Timon Gehr (*ETH*)</t>
+  </si>
+  <si>
+    <t>Talk: Daniel Lee (*Stan Development Team, Generable*)</t>
+  </si>
+  <si>
+    <t>Talk: Chung-Chieh (Ken) Shan (*Indiana University*)</t>
+  </si>
+  <si>
+    <t>Talk: Infer.NET Team (*Microsoft Research*)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
-    <numFmt numFmtId="170" formatCode="h:mm;@"/>
-    <numFmt numFmtId="173" formatCode="\*\*h:mm\*\*;@"/>
-    <numFmt numFmtId="174" formatCode="\*h:mm\*;@"/>
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -342,13 +394,6 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -710,94 +755,92 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -805,17 +848,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1247,21 +1284,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
@@ -1269,9 +1306,9 @@
     <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1283,65 +1320,65 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1356,319 +1393,277 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="11">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="B2" s="10"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2"/>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>0.3611111111111111</v>
       </c>
-      <c r="B3" s="10">
-        <f>B11</f>
-        <v>0.48611111111111116</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B4" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="6" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="8">
-        <f>A3</f>
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="B4" s="8">
-        <f>A4+times!$B$1</f>
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="8">
-        <f>B4</f>
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="B5" s="8">
-        <f>A5+times!$B$2</f>
-        <v>0.40277777777777779</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="8">
-        <f>B5</f>
-        <v>0.40277777777777779</v>
-      </c>
-      <c r="B6" s="8">
-        <f>A6+times!$B$2</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8">
-        <f>B6</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="B7" s="8">
-        <f>A7+times!$B$2</f>
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="C18" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="11">
-        <f>B7</f>
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="B8" s="11">
-        <f>A8+times!$B$3</f>
-        <v>0.44444444444444448</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="8">
-        <f>B8</f>
-        <v>0.44444444444444448</v>
-      </c>
-      <c r="B9" s="8">
-        <f>A9+times!$B$2</f>
-        <v>0.45833333333333337</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8">
-        <f>B9</f>
-        <v>0.45833333333333337</v>
-      </c>
-      <c r="B10" s="8">
-        <f>A10+times!$B$2</f>
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8">
-        <f>B10</f>
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="B11" s="8">
-        <f>A11+times!$B$2</f>
-        <v>0.48611111111111116</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8">
-        <f>B11</f>
-        <v>0.48611111111111116</v>
-      </c>
-      <c r="B12" s="8">
-        <f>A12+times!$B$2</f>
-        <v>0.5</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="11">
-        <f>B12</f>
-        <v>0.5</v>
-      </c>
-      <c r="B13" s="11">
-        <f>A14</f>
-        <v>0.625</v>
-      </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C22" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="10">
-        <v>0.625</v>
-      </c>
-      <c r="B14" s="10">
-        <f>B21</f>
-        <v>0.73611111111111083</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="8">
-        <f>A14</f>
-        <v>0.625</v>
-      </c>
-      <c r="B15" s="8">
-        <f>A15+times!$B$1</f>
-        <v>0.65277777777777779</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="8">
-        <f>B15</f>
-        <v>0.65277777777777779</v>
-      </c>
-      <c r="B16" s="8">
-        <f>A16+times!$B$2</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="8">
-        <f>B16</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="B17" s="8">
-        <f>A17+times!$B$2</f>
-        <v>0.68055555555555547</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="11">
-        <f>B17</f>
-        <v>0.68055555555555547</v>
-      </c>
-      <c r="B18" s="11">
-        <f>A18+times!$B$3</f>
-        <v>0.69444444444444431</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="8">
-        <f>B18</f>
-        <v>0.69444444444444431</v>
-      </c>
-      <c r="B19" s="8">
-        <f>A19+times!$B$2</f>
-        <v>0.70833333333333315</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="8">
-        <f>B19</f>
-        <v>0.70833333333333315</v>
-      </c>
-      <c r="B20" s="8">
-        <f>A20+times!$B$2</f>
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="8">
-        <f>B20</f>
-        <v>0.72222222222222199</v>
-      </c>
-      <c r="B21" s="8">
-        <f>A21+times!$B$2</f>
-        <v>0.73611111111111083</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="D23" s="6"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1682,323 +1677,283 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="11">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="B2" s="10"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4"/>
       <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C6" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="10">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="B3" s="10">
-        <f>B11</f>
-        <v>0.48611111111111116</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B19" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="8">
-        <f>A3</f>
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="B4" s="8">
-        <f>A4+times!$B$1</f>
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="8">
-        <f>B4</f>
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="B5" s="8">
-        <f>A5+times!$B$2</f>
-        <v>0.40277777777777779</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="8">
-        <f>B5</f>
-        <v>0.40277777777777779</v>
-      </c>
-      <c r="B6" s="8">
-        <f>A6+times!$B$2</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8">
-        <f>B6</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="B7" s="8">
-        <f>A7+times!$B$2</f>
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="11">
-        <f>B7</f>
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="B8" s="11">
-        <f>A8+times!$B$3</f>
-        <v>0.44444444444444448</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="8">
-        <f>B8</f>
-        <v>0.44444444444444448</v>
-      </c>
-      <c r="B9" s="8">
-        <f>A9+times!$B$2</f>
-        <v>0.45833333333333337</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8">
-        <f>B9</f>
-        <v>0.45833333333333337</v>
-      </c>
-      <c r="B10" s="8">
-        <f>A10+times!$B$2</f>
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8">
-        <f>B10</f>
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="B11" s="8">
-        <f>A11+times!$B$2</f>
-        <v>0.48611111111111116</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8">
-        <f>B11</f>
-        <v>0.48611111111111116</v>
-      </c>
-      <c r="B12" s="8">
-        <f>A12+times!$B$2</f>
-        <v>0.5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="11">
-        <f>B12</f>
-        <v>0.5</v>
-      </c>
-      <c r="B13" s="11">
-        <f>A14</f>
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="10">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="B14" s="10">
-        <f>B22</f>
-        <v>0.73611111111111072</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="8">
-        <f>A14</f>
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="B15" s="8">
-        <f>A15+times!$B$1</f>
-        <v>0.63888888888888884</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="8">
-        <f>B15</f>
-        <v>0.63888888888888884</v>
-      </c>
-      <c r="B16" s="8">
-        <f>A16+times!$B$2</f>
-        <v>0.65277777777777768</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="8">
-        <f>B16</f>
-        <v>0.65277777777777768</v>
-      </c>
-      <c r="B17" s="8">
-        <f>A17+times!$B$2</f>
-        <v>0.66666666666666652</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="8">
-        <f>B17</f>
-        <v>0.66666666666666652</v>
-      </c>
-      <c r="B18" s="8">
-        <f>A18+times!$B$2</f>
-        <v>0.68055555555555536</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="11">
-        <f>B18</f>
-        <v>0.68055555555555536</v>
-      </c>
-      <c r="B19" s="11">
-        <f>A19+times!$B$3</f>
-        <v>0.6944444444444442</v>
-      </c>
       <c r="C19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="8">
-        <f>B19</f>
-        <v>0.6944444444444442</v>
-      </c>
-      <c r="B20" s="8">
-        <f>A20+times!$B$2</f>
-        <v>0.70833333333333304</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.70833333333333337</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="8">
-        <f>B20</f>
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="B21" s="8">
-        <f>A21+times!$B$2</f>
-        <v>0.72222222222222188</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.72222222222222221</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="8">
-        <f>B21</f>
-        <v>0.72222222222222188</v>
-      </c>
-      <c r="B22" s="8">
-        <f>A22+times!$B$2</f>
-        <v>0.73611111111111072</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.73611111111111116</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="8">
-        <f>B22</f>
-        <v>0.73611111111111072</v>
-      </c>
-      <c r="B23" s="8">
-        <f>A23+times!$B$2</f>
-        <v>0.74999999999999956</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0.75</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2013,36 +1968,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="4">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2">
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="4">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="4">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>

--- a/_data/schedule.xlsx
+++ b/_data/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janwillem/Cloud/Git/probprog-conference/probprog-conference.github.io/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{082A2C06-777F-8849-9ACF-177E05547EDB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4967EFF4-F99B-0E49-91E8-0DC8534441BB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="540" windowWidth="32580" windowHeight="20380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="540" windowWidth="32580" windowHeight="20380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="oct4" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
     <t>Talk: Chung-Chieh (Ken) Shan (*Indiana University*)</t>
   </si>
   <si>
-    <t>Talk: Infer.NET Team (*Microsoft Research*)</t>
+    <t>Talk: Yordan Zaykov (*Microsoft Research*)</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1038,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1090,7 +1090,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1396,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1466,7 +1466,7 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1477,7 +1477,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1680,7 +1680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/_data/schedule.xlsx
+++ b/_data/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janwillem/Cloud/Git/probprog-conference/probprog-conference.github.io/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{631DD926-38D6-204A-B341-9AB5D302FBDC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BAD305-75CB-FC4A-A63F-B573C98CD8E4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26200" yWindow="540" windowWidth="24920" windowHeight="28180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26200" yWindow="540" windowWidth="24920" windowHeight="28180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule-oct4" sheetId="1" r:id="rId1"/>
@@ -118,9 +118,6 @@
     <t>Talk: Brooks Paige (*Alan Turing Institute, University of Cambridge*)</t>
   </si>
   <si>
-    <t>Talk: Tim O'Donnell (*McGill*)</t>
-  </si>
-  <si>
     <t>Invited or contributed Talk</t>
   </si>
   <si>
@@ -203,6 +200,9 @@
   </si>
   <si>
     <t>Tutorial by Vikash Mansinghka</t>
+  </si>
+  <si>
+    <t>*Community Announcements*</t>
   </si>
 </sst>
 </file>
@@ -634,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -724,7 +724,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>5</v>
@@ -752,10 +752,10 @@
         <v>0.6875</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16">
@@ -769,7 +769,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -782,7 +782,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -955,7 +957,7 @@
         <v>0.5</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="7"/>
     </row>
@@ -969,7 +971,7 @@
         <v>0.625</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7"/>
     </row>
@@ -982,7 +984,7 @@
         <v>0.74999999999999967</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>10</v>
@@ -998,7 +1000,7 @@
         <v>0.65277777777777779</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="7"/>
     </row>
@@ -1012,7 +1014,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="7"/>
     </row>
@@ -1026,7 +1028,7 @@
         <v>0.68055555555555547</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="7"/>
     </row>
@@ -1054,7 +1056,7 @@
         <v>0.70833333333333315</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="7"/>
     </row>
@@ -1068,7 +1070,7 @@
         <v>0.72222222222222199</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="7"/>
     </row>
@@ -1082,7 +1084,7 @@
         <v>0.73611111111111083</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="7"/>
     </row>
@@ -1096,7 +1098,7 @@
         <v>0.74999999999999967</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="7"/>
     </row>
@@ -5023,11 +5025,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
     <col min="4" max="6" width="23" customWidth="1"/>
@@ -5124,7 +5128,7 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16">
@@ -5150,7 +5154,7 @@
         <v>0.45833333333333337</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16">
@@ -5163,7 +5167,7 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16">
@@ -5176,7 +5180,7 @@
         <v>0.48611111111111116</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16">
@@ -5189,7 +5193,7 @@
         <v>0.5</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16">
@@ -5202,7 +5206,7 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16">
@@ -5214,7 +5218,7 @@
         <v>0.73611111111111072</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -5230,7 +5234,7 @@
         <v>0.63888888888888884</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16">
@@ -5243,7 +5247,7 @@
         <v>0.65277777777777768</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16">
@@ -5256,7 +5260,7 @@
         <v>0.66666666666666652</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16">
@@ -5269,7 +5273,7 @@
         <v>0.68055555555555536</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16">
@@ -5295,7 +5299,7 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
@@ -5308,7 +5312,7 @@
         <v>0.72222222222222188</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
@@ -5321,7 +5325,7 @@
         <v>0.73611111111111072</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
@@ -5334,7 +5338,7 @@
         <v>0.74999999999999956</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
@@ -9264,7 +9268,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16">
       <c r="A1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="13">
         <v>2.7777777777777776E-2</v>
@@ -9272,7 +9276,7 @@
     </row>
     <row r="2" spans="1:2" ht="16">
       <c r="A2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="13">
         <v>1.3888888888888888E-2</v>
@@ -9280,7 +9284,7 @@
     </row>
     <row r="3" spans="1:2" ht="16">
       <c r="A3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="13">
         <v>1.3888888888888888E-2</v>
@@ -9288,7 +9292,7 @@
     </row>
     <row r="4" spans="1:2" ht="16">
       <c r="A4" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="15">
         <v>6.9444444444444441E-3</v>
@@ -9296,7 +9300,7 @@
     </row>
     <row r="5" spans="1:2" ht="16">
       <c r="A5" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="15">
         <v>2.0833333333333332E-2</v>
